--- a/decisionSheet.xlsx
+++ b/decisionSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="basic_info" sheetId="4" r:id="rId1"/>
@@ -1478,7 +1478,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:H107"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3711,7 +3713,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:AG49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
@@ -5169,7 +5171,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:Z75"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5822,7 +5826,9 @@
       <c r="B27" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="90">
+        <v>10</v>
+      </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
@@ -5843,7 +5849,9 @@
       <c r="B28" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="90"/>
+      <c r="C28" s="90">
+        <v>10</v>
+      </c>
       <c r="D28" s="90"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
@@ -5864,7 +5872,9 @@
       <c r="B29" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="90">
+        <v>10</v>
+      </c>
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
@@ -5885,7 +5895,9 @@
       <c r="B30" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="90"/>
+      <c r="C30" s="90">
+        <v>10</v>
+      </c>
       <c r="D30" s="90"/>
       <c r="E30" s="90"/>
       <c r="F30" s="90"/>
@@ -5906,7 +5918,9 @@
       <c r="B31" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="90"/>
+      <c r="C31" s="90">
+        <v>10</v>
+      </c>
       <c r="D31" s="90"/>
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
@@ -5927,7 +5941,9 @@
       <c r="B32" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="90"/>
+      <c r="C32" s="90">
+        <v>10</v>
+      </c>
       <c r="D32" s="90"/>
       <c r="E32" s="90"/>
       <c r="F32" s="90"/>
@@ -5948,7 +5964,9 @@
       <c r="B33" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="90"/>
+      <c r="C33" s="90">
+        <v>20</v>
+      </c>
       <c r="D33" s="90"/>
       <c r="E33" s="90"/>
       <c r="F33" s="90"/>
@@ -5969,7 +5987,9 @@
       <c r="B34" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="90"/>
+      <c r="C34" s="90">
+        <v>20</v>
+      </c>
       <c r="D34" s="90"/>
       <c r="E34" s="90"/>
       <c r="F34" s="90"/>
@@ -5992,7 +6012,7 @@
       </c>
       <c r="C35" s="95">
         <f>SUM($C$27:$C$34)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D35" s="95">
         <f>SUM($D$27:$D$34)</f>
